--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="11">
   <si>
     <t>Scenario</t>
   </si>
@@ -804,6 +804,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
